--- a/Assets/Scripts/Dialog/Data/DialogDB.xlsx
+++ b/Assets/Scripts/Dialog/Data/DialogDB.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Github\Starry-Forest\Assets\Scripts\Dialog\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9F76DF-6CCB-4A21-A3EB-08CA8AB62636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18614D63-3220-45AB-BA61-28ED246BF1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F0A1ABF6-CC44-4EE5-BACC-D1091F2A4635}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{F0A1ABF6-CC44-4EE5-BACC-D1091F2A4635}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="1" r:id="rId1"/>
+    <sheet name="Stage2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>에구구 힘들다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>으악! 깜짝이야!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>너같이 쪼그만 애들은 충분히 가능할 거야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그렇구나 알려줘서 정말 고마워!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,52 +107,176 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미안해
-일부로 그런 건 아니야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>난 달이라고 해
-동생을 찾고 있어
+    <t>찬비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아! 혹시 본 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇겠지… 그렇지만 별이를 포기할 수는 없어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그… 그래? 자세히 보니 생김새가 조금 달라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이곳에도 모닥불이 있어!
+다람이가 만들어 놓은 모닥불일까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앗! 이게 무슨 소리지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아… 나는 달이라고 해!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동생? 흰색 쥐를 말하는 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말? 별이는… 별이는 괜찮아?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇구나… 고마워!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별이와 함께 찍었던 사진이야…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실 나한텐 부모님도 없고 친구도 없어
+별이가 유일한 내 혈육이자 친구야…
+나도 무섭지만 별이만큼은 포기할 수 없어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에구구 힘들다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미안해.
+일부로 그런 건 아니야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 달이라고 해.
+동생을 찾고 있어.
 혹시 오면서 하얀 쥐를 보지 못했니?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>잘 모르겠는 걸…
-실은 말이야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아까 저쪽에 검은 고양이가 있길래
-헐레벌떡 도망 왔걸랑
-주위를 볼 시간이 없었어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞아! 그 검은 고양이가 내 동생을 데리고 가버렸어
-난 동생을 찾으러 여기까지 뛰어온 거야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어휴 너도 참 고생이 많구나
-여기서 좀 쉬었다가 가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요 앞은 개울이니까
-그 검은 고양이 녀석도 그리 멀리 가지는 못했을거야</t>
+실은 말이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아! 그 검은 고양이가 내 동생을 데리고 가버렸어.
+난 동생을 찾으러 여기까지 뛰어온 거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어휴 너도 참 고생이 많구나.
+여기서 좀 쉬었다가 가.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요 앞은 개울이니까.
+그 검은 고양이 녀석도 그리 멀리 가지는 못했을거야.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>그리고 이건 나만 알고 있는 비밀인데…
-저 앞에 민들레가 잔뜩 피어있걸랑
-그걸 타면 날아서 개울을 건널 수 있을거야</t>
+저 앞에 민들레가 잔뜩 피어있걸랑.
+그걸 타면 날아서 개울을 건널 수 있을거야.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>정말이라니깐!
-사실 나도 옛날에 그렇게 다녔었는데
-요즘 조금 살이 쪄서 잘 안되더라고</t>
+사실 나도 옛날에 그렇게 다녔었는데.
+요즘 조금 살이 쪄서 잘 안되더라고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너같이 쪼그만 애들은 충분히 가능할 거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아까 저쪽에 검은 고양이가 있길래.
+헐레벌떡 도망 왔걸랑.
+주위를 볼 시간이 없었어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무도 없는 것 같으니 조금 쉬어야겠어.
+하루 종일 달리느라 너무 지쳤어…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너는 아까 그 참새잖아.
+저… 저리 가! 나는 아무 잘못도 하지 않았다고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응? 누구를 말하는 거지?
+나는 너를 처음 보는데.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 종이라고 해서 모두 같은 성격인 건 아니야.
+그런데 너는 누구지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇구나 민들레 숲에 온 걸 환영해.
+그렇지만 이곳은 네가 있을만한 곳이 아닐 텐데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮에 숲속을 돌아다니다 고양이가 물고 숲을 돌아다니는 걸 보았어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀리서 보아서 확실하진 않지만 표정이 해맑아 보이긴 하던데.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇구나… 
+아직은 시간이 있는 것 같아 다행이야.
+조금만 기다려 별이야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 직접 관여할 일은 아니지만
+아마 네 동생을 찾으려면 더욱 위험한 길을 지나야 할 거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞으로 가면 뱀이 서식하는 산딸기 숲이야.
+나 같이 날개가 있어 하늘을 날 수 있다면 괜찮겠지만
+너라면 목숨을 걸어야 할 거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 같으면 그런 위험을 감수하진 않을 거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 정도 각오라면 살아남을 지도 모르겠네.
+산딸기를 던져서 뱀의 이목을 끌면
+좀 더 안전하게 숲을 빠져나올 수 있을 거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동생 별이를 찾아 숲속을 헤매다 보니
+이곳까지 오게 되었어…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,15 +646,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD30D724-D444-4BC9-9882-D5B2A60F4162}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="4" max="4" width="66.375" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="66.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -621,7 +738,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -635,7 +752,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -649,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -663,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -677,7 +794,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -691,7 +808,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -705,7 +822,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -719,7 +836,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -733,7 +850,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -747,7 +864,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
@@ -761,7 +878,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -775,7 +892,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -789,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -803,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -817,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -831,7 +948,7 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -845,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -859,7 +976,392 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E0FF5C-2E71-49D7-ACC6-0BDF473BDA07}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="66.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
